--- a/LF_Gas_emission_factors.xlsx
+++ b/LF_Gas_emission_factors.xlsx
@@ -18,7 +18,7 @@
     <definedName name="engineType">#REF!</definedName>
     <definedName name="litersPerMole">'[1]Imported Data'!$E$38</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4481,11 +4481,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="62.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
@@ -4535,7 +4538,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>627</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>628</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>629</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>630</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>631</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>632</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>633</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>634</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>635</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>636</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>637</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>638</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>639</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>640</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>641</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>642</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>643</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>644</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>645</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>646</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>647</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>648</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>649</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>650</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>651</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>652</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>653</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>654</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>655</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>656</v>
       </c>
@@ -5749,7 +5752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>657</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>658</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>661</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>662</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>663</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>664</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>666</v>
       </c>
@@ -6159,7 +6162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>667</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>668</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>669</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>670</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>671</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>672</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>673</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>674</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>676</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>677</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>678</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>679</v>
       </c>
@@ -6692,7 +6695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>680</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>681</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>682</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>684</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>685</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>686</v>
       </c>
@@ -6979,7 +6982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>687</v>
       </c>
@@ -7020,7 +7023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>688</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>689</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>691</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>692</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>693</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>694</v>
       </c>
@@ -7307,7 +7310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>695</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>696</v>
       </c>
@@ -7389,7 +7392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>697</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>698</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>700</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>701</v>
       </c>
@@ -7586,7 +7589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>702</v>
       </c>
@@ -7623,7 +7626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>703</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>704</v>
       </c>
@@ -7701,7 +7704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>705</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>706</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>707</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>708</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>709</v>
       </c>
@@ -7902,7 +7905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>710</v>
       </c>
@@ -7943,7 +7946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>711</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>712</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>714</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>715</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>716</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>717</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>719</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>720</v>
       </c>
@@ -8353,7 +8356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>721</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>722</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>723</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>724</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>725</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>727</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>728</v>
       </c>
@@ -8673,7 +8676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>729</v>
       </c>
@@ -8710,7 +8713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>730</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>731</v>
       </c>
@@ -8788,7 +8791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>732</v>
       </c>
@@ -8825,7 +8828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>733</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>734</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>735</v>
       </c>
@@ -9030,7 +9033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>738</v>
       </c>
@@ -9071,7 +9074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>739</v>
       </c>
@@ -9112,7 +9115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>740</v>
       </c>
@@ -9194,7 +9197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>742</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>743</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>744</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>745</v>
       </c>
@@ -9399,7 +9402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>747</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>748</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>749</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>752</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>753</v>
       </c>
@@ -9686,7 +9689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>754</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>755</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>756</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>757</v>
       </c>
@@ -9879,7 +9882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>759</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>760</v>
       </c>
@@ -9953,7 +9956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>761</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>763</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>764</v>
       </c>
@@ -10105,7 +10108,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>765</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>766</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>767</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>768</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>769</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>770</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>771</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>772</v>
       </c>
@@ -10429,7 +10432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>773</v>
       </c>
@@ -10511,7 +10514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>775</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>776</v>
       </c>
@@ -10593,7 +10596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>777</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>778</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>779</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>780</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>781</v>
       </c>
@@ -10798,7 +10801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>782</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>783</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>784</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>786</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>787</v>
       </c>
@@ -11044,7 +11047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>788</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>789</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>791</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>792</v>
       </c>
@@ -11249,7 +11252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>793</v>
       </c>
@@ -11290,7 +11293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>794</v>
       </c>
@@ -11331,7 +11334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>795</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>796</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>798</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>799</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>800</v>
       </c>
@@ -11577,7 +11580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
         <v>801</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>802</v>
       </c>
@@ -11741,7 +11744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
         <v>805</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>806</v>
       </c>
@@ -11823,7 +11826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>807</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>808</v>
       </c>
@@ -11901,7 +11904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>809</v>
       </c>
@@ -11942,7 +11945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>810</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>811</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>812</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>813</v>
       </c>
@@ -12102,7 +12105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>814</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>815</v>
       </c>
@@ -12225,7 +12228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>817</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>818</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>819</v>
       </c>
@@ -12348,7 +12351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>820</v>
       </c>
@@ -12389,7 +12392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>821</v>
       </c>
@@ -12430,7 +12433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>822</v>
       </c>
@@ -12471,7 +12474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>823</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>824</v>
       </c>
@@ -12553,7 +12556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>825</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>827</v>
       </c>
@@ -12676,7 +12679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>828</v>
       </c>
@@ -12717,7 +12720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>829</v>
       </c>
@@ -12881,7 +12884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>833</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>834</v>
       </c>
@@ -12963,7 +12966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
         <v>835</v>
       </c>
@@ -13004,7 +13007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>836</v>
       </c>
@@ -13041,7 +13044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>837</v>
       </c>
@@ -13082,7 +13085,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>838</v>
       </c>
@@ -13398,7 +13401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>846</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
         <v>847</v>
       </c>
@@ -13480,7 +13483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>848</v>
       </c>
@@ -13517,7 +13520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>849</v>
       </c>
@@ -13558,7 +13561,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="225" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>850</v>
       </c>
@@ -13677,7 +13680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
         <v>853</v>
       </c>
@@ -13718,7 +13721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>854</v>
       </c>
@@ -13759,7 +13762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
         <v>855</v>
       </c>
@@ -13796,7 +13799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>856</v>
       </c>
@@ -13837,7 +13840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="232" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
         <v>857</v>
       </c>
@@ -13874,7 +13877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>858</v>
       </c>
@@ -13915,7 +13918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
         <v>859</v>
       </c>
@@ -13956,7 +13959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>860</v>
       </c>
@@ -13997,7 +14000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="15" t="s">
         <v>861</v>
       </c>
@@ -14038,7 +14041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>862</v>
       </c>
@@ -14075,7 +14078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
         <v>863</v>
       </c>
@@ -14112,7 +14115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>864</v>
       </c>
@@ -14153,7 +14156,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
         <v>865</v>
       </c>
@@ -14190,7 +14193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>866</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>867</v>
       </c>
@@ -14272,7 +14275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>868</v>
       </c>
@@ -14313,7 +14316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>869</v>
       </c>
@@ -14354,7 +14357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>870</v>
       </c>
@@ -14436,7 +14439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>872</v>
       </c>
@@ -14477,7 +14480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
         <v>873</v>
       </c>
@@ -14518,7 +14521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>874</v>
       </c>
@@ -14559,7 +14562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
         <v>875</v>
       </c>
@@ -14600,7 +14603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>876</v>
       </c>
@@ -14641,7 +14644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
         <v>877</v>
       </c>
@@ -14682,7 +14685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>878</v>
       </c>
@@ -14723,7 +14726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
         <v>879</v>
       </c>
@@ -14764,7 +14767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>880</v>
       </c>
@@ -14805,7 +14808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
         <v>881</v>
       </c>
@@ -14846,7 +14849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>882</v>
       </c>
@@ -14887,7 +14890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>883</v>
       </c>
@@ -14969,7 +14972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
         <v>885</v>
       </c>
@@ -15010,7 +15013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>886</v>
       </c>
@@ -15051,7 +15054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>887</v>
       </c>
@@ -15092,7 +15095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>888</v>
       </c>
@@ -15133,7 +15136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
         <v>889</v>
       </c>
@@ -15211,7 +15214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
         <v>891</v>
       </c>
@@ -15248,7 +15251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>892</v>
       </c>
@@ -15289,7 +15292,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="268" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
         <v>893</v>
       </c>
@@ -15326,7 +15329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>894</v>
       </c>
@@ -15367,7 +15370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
         <v>895</v>
       </c>
@@ -15408,7 +15411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>896</v>
       </c>
@@ -15449,7 +15452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
         <v>897</v>
       </c>
@@ -15490,7 +15493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>898</v>
       </c>
@@ -15531,7 +15534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
         <v>899</v>
       </c>
@@ -15572,7 +15575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>900</v>
       </c>
@@ -15613,7 +15616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
         <v>901</v>
       </c>
@@ -15654,7 +15657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>902</v>
       </c>
@@ -15695,7 +15698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
         <v>903</v>
       </c>
@@ -15736,7 +15739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>904</v>
       </c>
@@ -15777,7 +15780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
         <v>905</v>
       </c>
@@ -15818,7 +15821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>906</v>
       </c>
@@ -15859,7 +15862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="282" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
         <v>907</v>
       </c>
@@ -15896,7 +15899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>908</v>
       </c>
@@ -15937,7 +15940,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="284" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
         <v>909</v>
       </c>
@@ -16302,7 +16305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>918</v>
       </c>
@@ -16343,7 +16346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
         <v>919</v>
       </c>
@@ -16384,7 +16387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>920</v>
       </c>
@@ -16425,7 +16428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="15" t="s">
         <v>921</v>
       </c>
@@ -16466,7 +16469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>922</v>
       </c>
@@ -16507,7 +16510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
         <v>923</v>
       </c>
@@ -16548,7 +16551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>924</v>
       </c>
@@ -16589,7 +16592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="15" t="s">
         <v>925</v>
       </c>
@@ -16630,7 +16633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>926</v>
       </c>
@@ -16712,7 +16715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
         <v>928</v>
       </c>
@@ -16753,7 +16756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
         <v>929</v>
       </c>
@@ -16794,7 +16797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>930</v>
       </c>
@@ -16835,7 +16838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="15" t="s">
         <v>931</v>
       </c>
@@ -16876,7 +16879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>932</v>
       </c>
@@ -16917,7 +16920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
         <v>933</v>
       </c>
@@ -16958,7 +16961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>934</v>
       </c>
@@ -16999,7 +17002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
         <v>935</v>
       </c>
@@ -17036,7 +17039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>936</v>
       </c>
@@ -17077,7 +17080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="312" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="15" t="s">
         <v>937</v>
       </c>
@@ -17114,7 +17117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>938</v>
       </c>
@@ -17155,7 +17158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="15" t="s">
         <v>939</v>
       </c>
@@ -17196,7 +17199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>940</v>
       </c>
@@ -17237,7 +17240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="15" t="s">
         <v>941</v>
       </c>
@@ -17278,7 +17281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>942</v>
       </c>
@@ -17319,7 +17322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="15" t="s">
         <v>943</v>
       </c>
@@ -17360,7 +17363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>944</v>
       </c>
@@ -17401,7 +17404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="15" t="s">
         <v>945</v>
       </c>
@@ -17442,7 +17445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>946</v>
       </c>
@@ -17483,7 +17486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="15" t="s">
         <v>947</v>
       </c>
@@ -17565,7 +17568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="15" t="s">
         <v>949</v>
       </c>
@@ -17606,7 +17609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>950</v>
       </c>
@@ -17647,7 +17650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="15" t="s">
         <v>951</v>
       </c>
@@ -17688,7 +17691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>952</v>
       </c>
@@ -17729,7 +17732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="15" t="s">
         <v>953</v>
       </c>
@@ -17766,7 +17769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>954</v>
       </c>
@@ -17807,7 +17810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="330" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="15" t="s">
         <v>955</v>
       </c>
@@ -17848,7 +17851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>956</v>
       </c>
@@ -17889,7 +17892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="15" t="s">
         <v>957</v>
       </c>
@@ -17930,7 +17933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>958</v>
       </c>
@@ -17971,7 +17974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
         <v>959</v>
       </c>
@@ -18012,7 +18015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>960</v>
       </c>
@@ -18053,7 +18056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="15" t="s">
         <v>961</v>
       </c>
@@ -18094,7 +18097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>962</v>
       </c>
@@ -18135,7 +18138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="15" t="s">
         <v>963</v>
       </c>
@@ -18258,7 +18261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>966</v>
       </c>
@@ -18299,7 +18302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="15" t="s">
         <v>967</v>
       </c>
@@ -18340,7 +18343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>968</v>
       </c>
@@ -18381,7 +18384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
         <v>969</v>
       </c>
@@ -18422,7 +18425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
         <v>970</v>
       </c>
@@ -18463,7 +18466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="15" t="s">
         <v>971</v>
       </c>
@@ -18504,7 +18507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
         <v>972</v>
       </c>
@@ -18586,7 +18589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>974</v>
       </c>
@@ -18627,7 +18630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="15" t="s">
         <v>975</v>
       </c>
@@ -18668,7 +18671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
         <v>976</v>
       </c>
@@ -18750,7 +18753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
         <v>978</v>
       </c>
@@ -18791,7 +18794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="15" t="s">
         <v>979</v>
       </c>
@@ -18832,7 +18835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>980</v>
       </c>
@@ -18873,7 +18876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="15" t="s">
         <v>981</v>
       </c>
@@ -18988,7 +18991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
         <v>984</v>
       </c>
@@ -19025,7 +19028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="15" t="s">
         <v>985</v>
       </c>
@@ -19066,7 +19069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="361" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
         <v>986</v>
       </c>
@@ -19103,7 +19106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="15" t="s">
         <v>987</v>
       </c>
@@ -19144,7 +19147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>988</v>
       </c>
@@ -19386,7 +19389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
         <v>994</v>
       </c>
@@ -19427,7 +19430,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="370" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="15" t="s">
         <v>995</v>
       </c>
@@ -19661,7 +19664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="15" t="s">
         <v>1001</v>
       </c>
@@ -19702,7 +19705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
         <v>1002</v>
       </c>
@@ -19743,7 +19746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="15" t="s">
         <v>1003</v>
       </c>
@@ -19825,7 +19828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="15" t="s">
         <v>1005</v>
       </c>
@@ -19866,7 +19869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="381" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
         <v>1006</v>
       </c>
@@ -19907,7 +19910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="15" t="s">
         <v>1007</v>
       </c>
@@ -19948,7 +19951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
         <v>1008</v>
       </c>
@@ -19989,7 +19992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="15" t="s">
         <v>1009</v>
       </c>
@@ -20030,7 +20033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="385" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
         <v>1010</v>
       </c>
@@ -20067,7 +20070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="15" t="s">
         <v>1011</v>
       </c>
@@ -20108,7 +20111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="387" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
         <v>1012</v>
       </c>
@@ -20186,7 +20189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
         <v>1014</v>
       </c>
@@ -20227,7 +20230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="15" t="s">
         <v>1015</v>
       </c>
@@ -20268,7 +20271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
         <v>1016</v>
       </c>
@@ -20309,7 +20312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="15" t="s">
         <v>1017</v>
       </c>
@@ -20350,7 +20353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>1018</v>
       </c>
@@ -20391,7 +20394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="15" t="s">
         <v>1019</v>
       </c>
@@ -20432,7 +20435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
         <v>1020</v>
       </c>
@@ -20473,7 +20476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="15" t="s">
         <v>1021</v>
       </c>
@@ -20514,7 +20517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
         <v>1022</v>
       </c>
@@ -20555,7 +20558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="15" t="s">
         <v>1023</v>
       </c>
@@ -20596,7 +20599,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="399" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
         <v>1024</v>
       </c>
@@ -20637,7 +20640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
         <v>1025</v>
       </c>
@@ -20678,7 +20681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>1026</v>
       </c>
@@ -20719,7 +20722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="15" t="s">
         <v>1027</v>
       </c>
@@ -20760,7 +20763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
         <v>1028</v>
       </c>
@@ -20842,7 +20845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>1030</v>
       </c>
@@ -20883,7 +20886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="15" t="s">
         <v>1031</v>
       </c>
@@ -20924,7 +20927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
         <v>1032</v>
       </c>
@@ -20965,7 +20968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="15" t="s">
         <v>1033</v>
       </c>
@@ -21006,7 +21009,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="409" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
         <v>1034</v>
       </c>
@@ -21047,7 +21050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="15" t="s">
         <v>1035</v>
       </c>
@@ -21088,7 +21091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
         <v>1036</v>
       </c>
@@ -21211,7 +21214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="15" t="s">
         <v>1039</v>
       </c>
@@ -21252,7 +21255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
         <v>1040</v>
       </c>
@@ -21293,7 +21296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="15" t="s">
         <v>1041</v>
       </c>
@@ -21334,7 +21337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
         <v>1042</v>
       </c>
@@ -21416,7 +21419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
         <v>1044</v>
       </c>
@@ -21457,7 +21460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="15" t="s">
         <v>1045</v>
       </c>
@@ -21498,7 +21501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
         <v>1046</v>
       </c>
@@ -21539,7 +21542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="15" t="s">
         <v>1047</v>
       </c>
@@ -21580,7 +21583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
         <v>1048</v>
       </c>
@@ -21662,7 +21665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
         <v>1050</v>
       </c>
@@ -21703,7 +21706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="15" t="s">
         <v>1051</v>
       </c>
@@ -21744,7 +21747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
         <v>1052</v>
       </c>
@@ -21990,7 +21993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
         <v>1058</v>
       </c>
@@ -22031,7 +22034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="15" t="s">
         <v>1059</v>
       </c>
@@ -22072,7 +22075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
         <v>1060</v>
       </c>
@@ -22113,7 +22116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="15" t="s">
         <v>1061</v>
       </c>
@@ -22154,7 +22157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
         <v>1062</v>
       </c>
@@ -22318,7 +22321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
         <v>1066</v>
       </c>
@@ -22359,7 +22362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="15" t="s">
         <v>1067</v>
       </c>
@@ -22482,7 +22485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
         <v>1070</v>
       </c>
@@ -22523,7 +22526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="15" t="s">
         <v>1071</v>
       </c>
@@ -22562,7 +22565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
         <v>1072</v>
       </c>
@@ -22644,7 +22647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
         <v>1074</v>
       </c>
@@ -22685,7 +22688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="15" t="s">
         <v>1075</v>
       </c>
@@ -22726,7 +22729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
         <v>1076</v>
       </c>
@@ -22931,7 +22934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="15" t="s">
         <v>1081</v>
       </c>
@@ -22972,7 +22975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
         <v>1082</v>
       </c>
@@ -23009,7 +23012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="15" t="s">
         <v>1083</v>
       </c>
@@ -23050,7 +23053,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="459" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
         <v>1084</v>
       </c>
@@ -23087,7 +23090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="15" t="s">
         <v>1085</v>
       </c>
@@ -23128,7 +23131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
         <v>1086</v>
       </c>
@@ -23169,7 +23172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
         <v>1087</v>
       </c>
@@ -23210,7 +23213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
         <v>1088</v>
       </c>
@@ -23251,7 +23254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="15" t="s">
         <v>1089</v>
       </c>
@@ -23292,7 +23295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
         <v>1090</v>
       </c>
@@ -23333,7 +23336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
         <v>1091</v>
       </c>
@@ -23374,7 +23377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
         <v>1092</v>
       </c>
@@ -23415,7 +23418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="15" t="s">
         <v>1093</v>
       </c>
@@ -23456,7 +23459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
         <v>1094</v>
       </c>
@@ -23497,7 +23500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="15" t="s">
         <v>1095</v>
       </c>
@@ -23579,7 +23582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="15" t="s">
         <v>1097</v>
       </c>
@@ -23620,7 +23623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
         <v>1098</v>
       </c>
@@ -23661,7 +23664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="15" t="s">
         <v>1099</v>
       </c>
@@ -23702,7 +23705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
         <v>1100</v>
       </c>
@@ -23743,7 +23746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="15" t="s">
         <v>1101</v>
       </c>
@@ -23784,7 +23787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
         <v>1102</v>
       </c>
@@ -23825,7 +23828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="15" t="s">
         <v>1103</v>
       </c>
@@ -23866,7 +23869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
         <v>1104</v>
       </c>
@@ -23907,7 +23910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="15" t="s">
         <v>1105</v>
       </c>
@@ -23948,7 +23951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
         <v>1106</v>
       </c>
@@ -23989,7 +23992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="15" t="s">
         <v>1107</v>
       </c>
@@ -24030,7 +24033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
         <v>1108</v>
       </c>
@@ -24071,7 +24074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="15" t="s">
         <v>1109</v>
       </c>
@@ -24153,7 +24156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="15" t="s">
         <v>1111</v>
       </c>
@@ -24194,7 +24197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
         <v>1112</v>
       </c>
@@ -24235,7 +24238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="15" t="s">
         <v>1113</v>
       </c>
@@ -24276,7 +24279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
         <v>1114</v>
       </c>
@@ -24317,7 +24320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="15" t="s">
         <v>1115</v>
       </c>
@@ -24358,7 +24361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
         <v>1116</v>
       </c>
@@ -24399,7 +24402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="15" t="s">
         <v>1117</v>
       </c>
@@ -24440,7 +24443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
         <v>1118</v>
       </c>
@@ -24481,7 +24484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="15" t="s">
         <v>1119</v>
       </c>
@@ -24518,7 +24521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
         <v>1120</v>
       </c>
@@ -24559,7 +24562,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="496" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="15" t="s">
         <v>1121</v>
       </c>
@@ -24596,7 +24599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
         <v>1122</v>
       </c>
@@ -24635,7 +24638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="15" t="s">
         <v>1123</v>
       </c>
@@ -24672,7 +24675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
         <v>1124</v>
       </c>
@@ -24713,7 +24716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="500" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="15" t="s">
         <v>1125</v>
       </c>
@@ -24750,7 +24753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
         <v>1126</v>
       </c>
@@ -24791,7 +24794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="15" t="s">
         <v>1127</v>
       </c>
@@ -24832,7 +24835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
         <v>1128</v>
       </c>
@@ -24873,7 +24876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="15" t="s">
         <v>1129</v>
       </c>
@@ -24914,7 +24917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
         <v>1130</v>
       </c>
@@ -24955,7 +24958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="15" t="s">
         <v>1131</v>
       </c>
@@ -24996,7 +24999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
         <v>1132</v>
       </c>
@@ -25037,7 +25040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="15" t="s">
         <v>1133</v>
       </c>
@@ -25078,7 +25081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
         <v>1134</v>
       </c>
@@ -25201,7 +25204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="15" t="s">
         <v>1137</v>
       </c>
@@ -25242,7 +25245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="10" t="s">
         <v>1138</v>
       </c>
@@ -25283,7 +25286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="15" t="s">
         <v>1139</v>
       </c>
@@ -25324,7 +25327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="10" t="s">
         <v>1140</v>
       </c>
@@ -25365,7 +25368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="15" t="s">
         <v>1141</v>
       </c>
@@ -25406,7 +25409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="10" t="s">
         <v>1142</v>
       </c>
@@ -25447,7 +25450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="15" t="s">
         <v>1143</v>
       </c>
@@ -25488,7 +25491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="10" t="s">
         <v>1144</v>
       </c>
@@ -25529,7 +25532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="15" t="s">
         <v>1145</v>
       </c>
@@ -25611,7 +25614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="15" t="s">
         <v>1147</v>
       </c>
@@ -25652,7 +25655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="10" t="s">
         <v>1148</v>
       </c>
@@ -25693,7 +25696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="15" t="s">
         <v>1149</v>
       </c>
@@ -25734,7 +25737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="10" t="s">
         <v>1150</v>
       </c>
@@ -25816,7 +25819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="10" t="s">
         <v>1152</v>
       </c>
@@ -25857,7 +25860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="15" t="s">
         <v>1153</v>
       </c>
@@ -25898,7 +25901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="10" t="s">
         <v>1154</v>
       </c>
@@ -26021,7 +26024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="15" t="s">
         <v>1157</v>
       </c>
@@ -26062,7 +26065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="10" t="s">
         <v>1158</v>
       </c>
@@ -26103,7 +26106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="15" t="s">
         <v>1159</v>
       </c>
@@ -26144,7 +26147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="10" t="s">
         <v>1160</v>
       </c>
@@ -26226,7 +26229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="10" t="s">
         <v>1162</v>
       </c>
@@ -26267,7 +26270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="15" t="s">
         <v>1163</v>
       </c>
@@ -26308,7 +26311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="10" t="s">
         <v>1164</v>
       </c>
@@ -26349,7 +26352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="15" t="s">
         <v>1165</v>
       </c>
@@ -26431,7 +26434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="15" t="s">
         <v>1167</v>
       </c>
@@ -26472,7 +26475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="10" t="s">
         <v>1168</v>
       </c>
@@ -26513,7 +26516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="15" t="s">
         <v>1169</v>
       </c>
@@ -26554,7 +26557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="10" t="s">
         <v>1170</v>
       </c>
@@ -26636,7 +26639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="10" t="s">
         <v>1172</v>
       </c>
@@ -26677,7 +26680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="15" t="s">
         <v>1173</v>
       </c>
@@ -26718,7 +26721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="10" t="s">
         <v>1174</v>
       </c>
@@ -26759,7 +26762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="15" t="s">
         <v>1175</v>
       </c>
@@ -26800,7 +26803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="10" t="s">
         <v>1176</v>
       </c>
@@ -26841,7 +26844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="15" t="s">
         <v>1177</v>
       </c>
@@ -26882,7 +26885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="10" t="s">
         <v>1178</v>
       </c>
@@ -26923,7 +26926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="15" t="s">
         <v>1179</v>
       </c>
@@ -26964,7 +26967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="10" t="s">
         <v>1180</v>
       </c>
@@ -27046,7 +27049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="10" t="s">
         <v>1182</v>
       </c>
@@ -27087,7 +27090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="15" t="s">
         <v>1183</v>
       </c>
@@ -27128,7 +27131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="10" t="s">
         <v>1184</v>
       </c>
@@ -27169,7 +27172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="15" t="s">
         <v>1185</v>
       </c>
@@ -27206,7 +27209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="10" t="s">
         <v>1186</v>
       </c>
@@ -27247,7 +27250,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="562" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="15" t="s">
         <v>1187</v>
       </c>
@@ -27325,7 +27328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="15" t="s">
         <v>1189</v>
       </c>
@@ -27366,7 +27369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="10" t="s">
         <v>1190</v>
       </c>
@@ -27407,7 +27410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="15" t="s">
         <v>1191</v>
       </c>
@@ -27448,7 +27451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="10" t="s">
         <v>1192</v>
       </c>
@@ -27530,7 +27533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="10" t="s">
         <v>1194</v>
       </c>
@@ -27571,7 +27574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="15" t="s">
         <v>1195</v>
       </c>
@@ -27612,7 +27615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="10" t="s">
         <v>1196</v>
       </c>
@@ -27653,7 +27656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="15" t="s">
         <v>1197</v>
       </c>
@@ -27694,7 +27697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="10" t="s">
         <v>1198</v>
       </c>
@@ -27735,7 +27738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="15" t="s">
         <v>1199</v>
       </c>
@@ -27776,7 +27779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="10" t="s">
         <v>1200</v>
       </c>
@@ -27817,7 +27820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="15" t="s">
         <v>1201</v>
       </c>
@@ -27858,7 +27861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="10" t="s">
         <v>1202</v>
       </c>
@@ -27899,7 +27902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="15" t="s">
         <v>1203</v>
       </c>
@@ -27940,7 +27943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="10" t="s">
         <v>1196</v>
       </c>
@@ -27981,7 +27984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="15" t="s">
         <v>1204</v>
       </c>
@@ -28022,7 +28025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="10" t="s">
         <v>1205</v>
       </c>
@@ -28063,7 +28066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="582" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="15" t="s">
         <v>1206</v>
       </c>
@@ -28104,7 +28107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="10" t="s">
         <v>1207</v>
       </c>
@@ -28186,7 +28189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="10" t="s">
         <v>1209</v>
       </c>
@@ -28227,7 +28230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="15" t="s">
         <v>1210</v>
       </c>
@@ -28268,7 +28271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="10" t="s">
         <v>1211</v>
       </c>
@@ -28309,7 +28312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="15" t="s">
         <v>1212</v>
       </c>
@@ -28350,7 +28353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="10" t="s">
         <v>1213</v>
       </c>
@@ -28391,7 +28394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="15" t="s">
         <v>1214</v>
       </c>
@@ -28432,7 +28435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="10" t="s">
         <v>1215</v>
       </c>
@@ -28473,7 +28476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="15" t="s">
         <v>1216</v>
       </c>
@@ -28514,7 +28517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="10" t="s">
         <v>1217</v>
       </c>
@@ -28555,7 +28558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="15" t="s">
         <v>1218</v>
       </c>
@@ -28596,7 +28599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="10" t="s">
         <v>1219</v>
       </c>
@@ -28637,7 +28640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="15" t="s">
         <v>1220</v>
       </c>
@@ -28678,7 +28681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="10" t="s">
         <v>1221</v>
       </c>
@@ -28719,7 +28722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="15" t="s">
         <v>1222</v>
       </c>
@@ -28760,7 +28763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="10" t="s">
         <v>1223</v>
       </c>
@@ -28801,7 +28804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="15" t="s">
         <v>1224</v>
       </c>
@@ -28883,7 +28886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="15" t="s">
         <v>1226</v>
       </c>
@@ -28924,7 +28927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="10" t="s">
         <v>1227</v>
       </c>
@@ -28965,7 +28968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="15" t="s">
         <v>1228</v>
       </c>
@@ -29047,7 +29050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="606" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="15" t="s">
         <v>1230</v>
       </c>
@@ -29088,7 +29091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="10" t="s">
         <v>1231</v>
       </c>
@@ -29129,7 +29132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="15" t="s">
         <v>1232</v>
       </c>
@@ -29170,7 +29173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" s="10" t="s">
         <v>1233</v>
       </c>
@@ -29207,7 +29210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" s="15" t="s">
         <v>1234</v>
       </c>
@@ -29248,7 +29251,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="611" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="10" t="s">
         <v>1235</v>
       </c>
@@ -29285,7 +29288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" s="15" t="s">
         <v>1236</v>
       </c>
@@ -29326,7 +29329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="10" t="s">
         <v>1237</v>
       </c>
@@ -29367,7 +29370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="15" t="s">
         <v>1238</v>
       </c>
@@ -29408,7 +29411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="10" t="s">
         <v>1239</v>
       </c>
@@ -29490,7 +29493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="10" t="s">
         <v>1241</v>
       </c>
@@ -29531,7 +29534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="618" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="15" t="s">
         <v>1242</v>
       </c>
@@ -29572,7 +29575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="10" t="s">
         <v>1243</v>
       </c>
@@ -29613,7 +29616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="15" t="s">
         <v>1244</v>
       </c>
@@ -29654,7 +29657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A621" s="10" t="s">
         <v>1245</v>
       </c>
@@ -29695,7 +29698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="15" t="s">
         <v>1246</v>
       </c>
@@ -29736,7 +29739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="623" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="10" t="s">
         <v>1247</v>
       </c>
@@ -29777,7 +29780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="15" t="s">
         <v>1248</v>
       </c>
@@ -29818,7 +29821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="10" t="s">
         <v>1249</v>
       </c>
@@ -29859,7 +29862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="15" t="s">
         <v>1250</v>
       </c>
@@ -29941,7 +29944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="15" t="s">
         <v>1252</v>
       </c>
@@ -29982,7 +29985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A629" s="10" t="s">
         <v>1253</v>
       </c>
@@ -30023,7 +30026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="630" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A630" s="15" t="s">
         <v>1254</v>
       </c>
@@ -30105,7 +30108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A632" s="15" t="s">
         <v>1256</v>
       </c>
@@ -30146,7 +30149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A633" s="10" t="s">
         <v>1257</v>
       </c>
@@ -30187,7 +30190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A634" s="15" t="s">
         <v>1258</v>
       </c>
@@ -30228,7 +30231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A635" s="10" t="s">
         <v>1259</v>
       </c>
@@ -30269,7 +30272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A636" s="15" t="s">
         <v>1260</v>
       </c>
@@ -30310,7 +30313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="10" t="s">
         <v>1261</v>
       </c>
@@ -30351,7 +30354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="15" t="s">
         <v>1262</v>
       </c>
@@ -30392,7 +30395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="639" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="10" t="s">
         <v>1263</v>
       </c>
@@ -30433,7 +30436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="15" t="s">
         <v>1264</v>
       </c>
@@ -30474,7 +30477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="10" t="s">
         <v>1265</v>
       </c>
@@ -30515,7 +30518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="15" t="s">
         <v>1266</v>
       </c>
@@ -30556,7 +30559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="10" t="s">
         <v>1267</v>
       </c>
@@ -30597,7 +30600,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="644" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="15" t="s">
         <v>1268</v>
       </c>
@@ -30638,7 +30641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="645" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="10" t="s">
         <v>1269</v>
       </c>
@@ -30761,7 +30764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="15" t="s">
         <v>1272</v>
       </c>
@@ -30802,7 +30805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A649" s="10" t="s">
         <v>1273</v>
       </c>
@@ -30843,7 +30846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="15" t="s">
         <v>1274</v>
       </c>
@@ -30884,7 +30887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="10" t="s">
         <v>1275</v>
       </c>
@@ -30925,7 +30928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A652" s="15" t="s">
         <v>1276</v>
       </c>
@@ -30966,7 +30969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:13" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="17" t="s">
         <v>1277</v>
       </c>
